--- a/Banco Central/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Serie</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3630,6 +3633,32 @@
         <v>588</v>
       </c>
     </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135">
+        <v>7386</v>
+      </c>
+      <c r="D135">
+        <v>2470</v>
+      </c>
+      <c r="E135">
+        <v>586</v>
+      </c>
+      <c r="F135">
+        <v>958</v>
+      </c>
+      <c r="G135">
+        <v>2344</v>
+      </c>
+      <c r="H135">
+        <v>440</v>
+      </c>
+      <c r="I135">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
